--- a/medicine/Bioéthique/Republicans_for_Choice/Republicans_for_Choice.xlsx
+++ b/medicine/Bioéthique/Republicans_for_Choice/Republicans_for_Choice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Republicans for Choice, en français Républicains pour le choix, est une organisation située à Washington, D.C. constituant un comité d'action politique composé de membres du Parti républicain qui supportent la légalisation de l'avortement. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire de Republicans for Choice</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Republicans for Choice fut fondé en 1989 par Ann Stone (collecteuse de fond conservatrice et femme du célèbre consultant républicain Roger Stone)[1] et favorisa l'élection de 500 candidats républicains dans les 50 États, afin de contrecarrer l'attirance du parti républicain pour les candidats pro-vie et leur plate-forme politique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Republicans for Choice fut fondé en 1989 par Ann Stone (collecteuse de fond conservatrice et femme du célèbre consultant républicain Roger Stone) et favorisa l'élection de 500 candidats républicains dans les 50 États, afin de contrecarrer l'attirance du parti républicain pour les candidats pro-vie et leur plate-forme politique.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sénat
-Susan Collins du Maine
+          <t>Sénat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Susan Collins du Maine
 Lisa Murkowski d'Alaska
 Olympia Snowe du Maine
 Arlen Specter de Pennsylvanie
@@ -577,7 +596,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Assurer que les principes de base du parti républicain soient équitablement appliqués : Le parti républicain veut « une Amérique avec un gouvernement réduit à son minimum, qui croit les citoyens libres de décider par eux-mêmes ce qu'il y a de mieux pour eux... une Amérique où la liberté d'expression, la conscience individuelle, et les droits privés sont respectés ».
 De plus, Republicans for Choice a suggéré des modifications de la plate-forme du parti républicain, en ces termes :
